--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -594,16 +594,16 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:identificadorInterconsulta</t>
-  </si>
-  <si>
-    <t>identificadorInterconsulta</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:identificadorConsultaAPS</t>
-  </si>
-  <si>
-    <t>identificadorConsultaAPS</t>
+    <t>ServiceRequest.identifier:IdInterconsulta</t>
+  </si>
+  <si>
+    <t>IdInterconsulta</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier:IdConsultaAPS</t>
+  </si>
+  <si>
+    <t>IdConsultaAPS</t>
   </si>
   <si>
     <t>ServiceRequest.instantiatesCanonical</t>
@@ -1835,7 +1835,7 @@
   <cols>
     <col min="1" max="1" width="50.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.4296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.98828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,7 +419,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -488,17 +488,22 @@
     <t>Tiene alergia el paciente</t>
   </si>
   <si>
-    <t>ServiceRequest.extension:PatologiasGES</t>
-  </si>
-  <si>
-    <t>PatologiasGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtInteger}
-</t>
-  </si>
-  <si>
-    <t>ExtInteger</t>
+    <t>ServiceRequest.extension:Cuidador</t>
+  </si>
+  <si>
+    <t>Cuidador</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:PresentaDiscapacidad</t>
+  </si>
+  <si>
+    <t>PresentaDiscapacidad</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:PersonaMayor</t>
+  </si>
+  <si>
+    <t>PersonaMayor</t>
   </si>
   <si>
     <t>ServiceRequest.extension:OrigenInterconsulta</t>
@@ -530,6 +535,32 @@
     <t>ExtString</t>
   </si>
   <si>
+    <t>ServiceRequest.extension:EstadoInterconsultaCodigo</t>
+  </si>
+  <si>
+    <t>EstadoInterconsultaCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/EstadoInterconsultaCodigoLE}
+</t>
+  </si>
+  <si>
+    <t>Estado Interconsulta Codigo</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:DocAcreditacionCuidadorCodigo</t>
+  </si>
+  <si>
+    <t>DocAcreditacionCuidadorCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/DocAcreditacionCuidadorCodigoLE}
+</t>
+  </si>
+  <si>
+    <t>Doc Acreditacion Cuidador</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1369,10 +1400,6 @@
     <t>paciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PacienteLE)
-</t>
-  </si>
-  <si>
     <t>ServiceRequest.supportingInfo:QuestionnaireResponse</t>
   </si>
   <si>
@@ -1389,7 +1416,7 @@
     <t>Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionLE)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionLE1)
 </t>
   </si>
   <si>
@@ -1824,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1833,9 +1860,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.40234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.61328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.4296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="30.06640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3309,13 +3336,13 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3398,13 +3425,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
@@ -3426,13 +3453,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3515,13 +3542,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3543,13 +3570,13 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3632,46 +3659,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3719,7 +3744,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3728,7 +3753,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>137</v>
@@ -3740,7 +3765,7 @@
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3751,21 +3776,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>86</v>
@@ -3774,20 +3801,18 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3824,19 +3849,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3845,36 +3870,36 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3893,20 +3918,18 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3955,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3964,36 +3987,36 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
@@ -4012,20 +4035,18 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4074,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4083,37 +4104,37 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4126,24 +4147,26 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4191,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4203,16 +4226,16 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4223,10 +4246,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4234,13 +4257,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>77</v>
@@ -4249,16 +4272,16 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4296,19 +4319,19 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4323,41 +4346,43 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>77</v>
@@ -4366,15 +4391,17 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4450,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4438,41 +4465,43 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -4481,15 +4510,17 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4538,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4553,38 +4584,38 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4596,20 +4627,18 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4657,13 +4686,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4672,13 +4701,13 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4689,10 +4718,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4700,31 +4729,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4750,13 +4779,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4774,13 +4803,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4789,60 +4818,58 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4867,13 +4894,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4891,13 +4918,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4906,16 +4933,16 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4923,14 +4950,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4949,20 +4976,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4986,13 +5009,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5010,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -5025,16 +5048,16 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>77</v>
@@ -5042,24 +5065,24 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>77</v>
@@ -5068,22 +5091,24 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5103,13 +5128,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5127,7 +5152,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5142,16 +5167,16 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>77</v>
@@ -5159,10 +5184,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5170,13 +5195,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
@@ -5185,26 +5210,22 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5224,13 +5245,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5248,10 +5269,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>85</v>
@@ -5263,59 +5284,59 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5341,14 +5362,14 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5365,10 +5386,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>85</v>
@@ -5380,31 +5401,31 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5423,18 +5444,20 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5458,13 +5481,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5482,7 +5505,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5491,7 +5514,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
@@ -5500,24 +5523,24 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5525,13 +5548,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5540,22 +5563,22 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="R32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5575,13 +5598,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5599,7 +5622,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5614,16 +5637,16 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>77</v>
@@ -5631,10 +5654,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5642,35 +5665,41 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5714,10 +5743,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>85</v>
@@ -5729,31 +5758,31 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5772,15 +5801,17 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5805,13 +5836,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5829,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5844,38 +5875,38 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5887,15 +5918,17 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5920,13 +5953,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5944,42 +5977,42 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6002,16 +6035,18 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6035,13 +6070,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6059,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -6077,28 +6112,28 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6117,13 +6152,13 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6174,10 +6209,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
@@ -6189,31 +6224,31 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6232,17 +6267,15 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6291,7 +6324,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6306,31 +6339,31 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6349,17 +6382,15 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6384,13 +6415,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6408,7 +6439,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6423,38 +6454,38 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6466,17 +6497,15 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6501,13 +6530,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6525,13 +6554,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6540,41 +6569,41 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>77</v>
@@ -6583,13 +6612,13 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6616,13 +6645,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6640,13 +6669,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6655,38 +6684,38 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6698,15 +6727,17 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6755,13 +6786,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6770,41 +6801,41 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6813,16 +6844,16 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6848,13 +6879,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6872,13 +6903,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6887,16 +6918,16 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>77</v>
@@ -6904,14 +6935,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6930,16 +6961,16 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6989,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -7004,16 +7035,16 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>77</v>
@@ -7021,10 +7052,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7044,16 +7075,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>411</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7080,13 +7111,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7104,7 +7135,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7119,16 +7150,16 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>77</v>
@@ -7136,43 +7167,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7209,19 +7238,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7236,16 +7265,16 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>77</v>
@@ -7253,23 +7282,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>86</v>
@@ -7278,19 +7305,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7316,13 +7343,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7355,16 +7382,16 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>77</v>
@@ -7372,44 +7399,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7459,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7474,16 +7499,16 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>77</v>
@@ -7491,26 +7516,24 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -7519,17 +7542,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7578,7 +7599,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7610,23 +7631,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>86</v>
@@ -7638,16 +7657,16 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7685,19 +7704,19 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7712,13 +7731,13 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7729,16 +7748,16 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7757,16 +7776,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7816,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7831,13 +7850,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7848,42 +7867,44 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7933,7 +7954,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7948,13 +7969,13 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7965,46 +7986,46 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>248</v>
+        <v>444</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8028,13 +8049,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8052,7 +8073,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -8067,41 +8088,43 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -8110,15 +8133,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8167,7 +8192,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8182,31 +8207,33 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8216,24 +8243,26 @@
         <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8282,13 +8311,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8297,13 +8326,13 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8314,10 +8343,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8337,19 +8366,19 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8399,7 +8428,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8414,23 +8443,489 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="L59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO56" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO56">
+  <autoFilter ref="A1:AO60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8440,7 +8935,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1568,7 +1568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/EncounterInicioLE)
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2465,17 +2465,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2484,27 +2484,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="24.46484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="43.01171875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="44.640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -628,6 +628,32 @@
     <t>SubEspecialidad Médica Destino Código</t>
   </si>
   <si>
+    <t>ServiceRequest.extension:DestinoAtencionCodigo</t>
+  </si>
+  <si>
+    <t>DestinoAtencionCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/DestinoAtencionCodigo}
+</t>
+  </si>
+  <si>
+    <t>Destino Atención Codigo</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:PertinenciaInterconsulta</t>
+  </si>
+  <si>
+    <t>PertinenciaInterconsulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/PertinenciaInterconsulta}
+</t>
+  </si>
+  <si>
+    <t>Pertinencia Interconsulta</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -654,9 +680,6 @@
     <t>ServiceRequest.identifier</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -670,13 +693,6 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t>value:type.coding.code}
-value:type.coding.system}</t>
-  </si>
-  <si>
-    <t>Slice creado para almacenar los identificadores</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -690,15 +706,6 @@
   </si>
   <si>
     <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta</t>
-  </si>
-  <si>
-    <t>IdInterconsulta</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.id</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.id</t>
@@ -720,9 +727,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -738,9 +742,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.use</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -769,9 +770,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.type</t>
@@ -808,19 +806,10 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.id</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.id</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.type.coding</t>
@@ -851,21 +840,12 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.id</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.system</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.system</t>
   </si>
   <si>
@@ -890,9 +870,6 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.version</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.version</t>
   </si>
   <si>
@@ -914,9 +891,6 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.code</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.code</t>
   </si>
   <si>
@@ -929,6 +903,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>IdInterconsulta</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -938,9 +915,6 @@
     <t>./code</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.display</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.coding.display</t>
   </si>
   <si>
@@ -960,9 +934,6 @@
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.coding.userSelected</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.type.coding.userSelected</t>
@@ -993,9 +964,6 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.type.text</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.type.text</t>
   </si>
   <si>
@@ -1020,9 +988,6 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.system</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.system</t>
   </si>
   <si>
@@ -1050,9 +1015,6 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.value</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.value</t>
   </si>
   <si>
@@ -1075,9 +1037,6 @@
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.period</t>
   </si>
   <si>
     <t>ServiceRequest.identifier.period</t>
@@ -1102,9 +1061,6 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier:IdInterconsulta.assigner</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
@@ -1379,9 +1335,6 @@
     <t>ServiceRequest.priority</t>
   </si>
   <si>
-    <t>Pertinencia Interconsulta</t>
-  </si>
-  <si>
     <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
   </si>
   <si>
@@ -1442,14 +1395,17 @@
     <t>ServiceRequest.doNotPerform.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.doNotPerform.extension:PertinenciaInterconsulta</t>
-  </si>
-  <si>
-    <t>PertinenciaInterconsulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/PertinenciaInterconsulta}
+    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo</t>
+  </si>
+  <si>
+    <t>MotivoNoPertinenciaCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/MotivoNoPertinenciaCodigo}
 </t>
+  </si>
+  <si>
+    <t>Motivo No Pertinencia Codigo</t>
   </si>
   <si>
     <t>ServiceRequest.doNotPerform.value</t>
@@ -1499,6 +1455,21 @@
   </si>
   <si>
     <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>derivado a especialidad</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -2456,7 +2427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO109"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2465,17 +2436,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.9296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2484,27 +2455,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="44.640625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5086,43 +5057,41 @@
         <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5170,7 +5139,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5148,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>138</v>
@@ -5191,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5202,21 +5171,23 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>88</v>
@@ -5225,20 +5196,18 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -5275,19 +5244,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -5296,58 +5265,56 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>204</v>
@@ -5358,7 +5325,9 @@
       <c r="N25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5406,7 +5375,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5418,30 +5387,30 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5452,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5461,18 +5430,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5521,13 +5492,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -5536,38 +5507,38 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5579,17 +5550,15 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5626,31 +5595,31 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5659,7 +5628,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5670,46 +5639,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5733,52 +5700,52 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5789,10 +5756,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5800,34 +5767,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5852,13 +5819,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5876,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5894,7 +5861,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>239</v>
@@ -5908,10 +5875,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5919,31 +5886,35 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5967,13 +5938,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5991,7 +5962,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6003,16 +5974,16 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -6023,21 +5994,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -6049,17 +6020,15 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6096,31 +6065,31 @@
         <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -6129,7 +6098,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6140,46 +6109,44 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -6215,19 +6182,19 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6239,16 +6206,16 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6259,10 +6226,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6270,31 +6237,35 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6342,28 +6313,28 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6374,21 +6345,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6400,17 +6371,15 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6447,31 +6416,31 @@
         <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6480,7 +6449,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6491,46 +6460,44 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6566,40 +6533,40 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6610,10 +6577,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6621,13 +6588,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6636,18 +6603,20 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6695,7 +6664,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6713,10 +6682,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6727,10 +6696,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6738,13 +6707,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6753,18 +6722,18 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6773,7 +6742,7 @@
         <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>79</v>
@@ -6812,7 +6781,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6830,10 +6799,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6844,10 +6813,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6855,7 +6824,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6870,17 +6839,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6890,7 +6859,7 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>79</v>
@@ -6929,7 +6898,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6947,10 +6916,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6961,10 +6930,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6978,7 +6947,7 @@
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
@@ -6987,19 +6956,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -7048,7 +7015,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7066,10 +7033,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7080,10 +7047,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7106,19 +7073,19 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7167,7 +7134,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7185,10 +7152,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7199,10 +7166,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7225,19 +7192,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7250,7 +7217,7 @@
         <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>79</v>
@@ -7286,7 +7253,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7304,10 +7271,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7318,10 +7285,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7329,13 +7296,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>79</v>
@@ -7344,18 +7311,20 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7367,7 +7336,7 @@
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7403,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7421,10 +7390,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7435,10 +7404,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7446,13 +7415,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
@@ -7461,15 +7430,17 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7482,7 +7453,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7518,7 +7489,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7536,10 +7507,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7550,10 +7521,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7576,17 +7547,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7635,7 +7604,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7653,10 +7622,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7667,10 +7636,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7681,7 +7650,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7693,16 +7662,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7752,13 +7721,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7767,13 +7736,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7784,10 +7753,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7810,16 +7779,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7869,7 +7838,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7884,13 +7853,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7901,14 +7870,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7927,15 +7896,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7984,7 +7955,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7999,13 +7970,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -8016,14 +7987,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8042,13 +8013,13 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8099,7 +8070,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8114,13 +8085,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8131,21 +8102,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8157,20 +8128,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8218,13 +8185,13 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
@@ -8233,13 +8200,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8250,44 +8217,46 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8311,13 +8280,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8335,10 +8304,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>87</v>
@@ -8350,27 +8319,27 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8396,13 +8365,13 @@
         <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8431,10 +8400,10 @@
         <v>235</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8452,7 +8421,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>87</v>
@@ -8467,27 +8436,27 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8495,7 +8464,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -8504,26 +8473,24 @@
         <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8547,13 +8514,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8571,13 +8538,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8586,16 +8553,16 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8603,10 +8570,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8620,25 +8587,29 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8662,13 +8633,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8686,31 +8657,31 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>222</v>
+        <v>410</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8718,21 +8689,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8744,17 +8715,15 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8791,31 +8760,31 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8824,7 +8793,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8835,46 +8804,44 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8910,19 +8877,19 @@
         <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8934,16 +8901,16 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8954,10 +8921,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8965,31 +8932,35 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9037,28 +9008,28 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9069,21 +9040,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -9095,17 +9066,15 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9142,31 +9111,31 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9175,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9186,46 +9155,44 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9261,40 +9228,40 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9305,10 +9272,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9322,7 +9289,7 @@
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
@@ -9331,18 +9298,20 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9390,7 +9359,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9408,10 +9377,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9422,10 +9391,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9433,13 +9402,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
@@ -9448,18 +9417,18 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9483,11 +9452,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9505,7 +9476,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9523,10 +9494,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9537,10 +9508,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9548,7 +9519,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
@@ -9563,17 +9534,17 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9598,13 +9569,11 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9622,7 +9591,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9640,10 +9609,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9654,10 +9623,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9671,7 +9640,7 @@
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>79</v>
@@ -9680,19 +9649,17 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9741,7 +9708,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9726,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9773,10 +9740,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9799,19 +9766,19 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9860,7 +9827,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9878,10 +9845,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9892,10 +9859,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9909,7 +9876,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>79</v>
@@ -9918,22 +9885,24 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q64" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9953,13 +9922,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9977,7 +9946,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>308</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9992,16 +9961,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>445</v>
+        <v>309</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10009,10 +9978,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10029,31 +9998,27 @@
         <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>449</v>
+        <v>201</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -10074,13 +10039,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10098,7 +10063,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10113,16 +10078,16 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10130,10 +10095,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10147,29 +10112,35 @@
         <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10213,7 +10184,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>432</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10225,16 +10196,16 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10245,10 +10216,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10259,7 +10230,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10271,13 +10242,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>134</v>
+        <v>442</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10316,29 +10287,31 @@
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10358,14 +10331,12 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10374,10 +10345,10 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>79</v>
@@ -10386,13 +10357,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10431,19 +10402,17 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10421,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>138</v>
@@ -10475,12 +10444,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10492,7 +10463,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>79</v>
@@ -10501,13 +10472,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>305</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10558,19 +10529,19 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>466</v>
+        <v>229</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10590,14 +10561,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10613,20 +10584,18 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10651,13 +10620,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10644,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10687,44 +10656,44 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>79</v>
@@ -10733,16 +10702,16 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10768,13 +10737,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10792,42 +10761,42 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10847,21 +10816,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>220</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>221</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>222</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10909,7 +10876,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>488</v>
+        <v>223</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10921,16 +10888,16 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>493</v>
+        <v>224</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10941,41 +10908,43 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>226</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11012,65 +10981,65 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>500</v>
+        <v>224</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11082,16 +11051,20 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>505</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>506</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11139,13 +11112,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>503</v>
+        <v>259</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -11154,41 +11127,41 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>509</v>
+        <v>260</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>510</v>
+        <v>261</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>79</v>
@@ -11197,16 +11170,20 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>515</v>
+        <v>220</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>516</v>
+        <v>304</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11215,7 +11192,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -11254,7 +11231,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>513</v>
+        <v>308</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11269,38 +11246,38 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>519</v>
+        <v>309</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11312,15 +11289,17 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>524</v>
+        <v>241</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11345,13 +11324,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11369,16 +11348,16 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>99</v>
@@ -11387,28 +11366,28 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>530</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11418,7 +11397,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>79</v>
@@ -11427,16 +11406,18 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11484,7 +11465,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11499,35 +11480,35 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
@@ -11542,17 +11523,15 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>544</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11601,10 +11580,10 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>87</v>
@@ -11616,31 +11595,31 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>549</v>
+        <v>490</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>551</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>553</v>
+        <v>494</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11659,17 +11638,15 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11694,13 +11671,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11718,7 +11695,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11733,38 +11710,38 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11776,17 +11753,15 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11835,13 +11810,13 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
@@ -11850,27 +11825,27 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11884,7 +11859,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>79</v>
@@ -11893,13 +11868,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>242</v>
+        <v>514</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11926,13 +11901,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11950,13 +11925,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -11971,25 +11946,25 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11999,22 +11974,22 @@
         <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>219</v>
+        <v>524</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>220</v>
+        <v>525</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12065,7 +12040,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>221</v>
+        <v>521</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12077,62 +12052,62 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>222</v>
+        <v>528</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>195</v>
+        <v>532</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>132</v>
+        <v>533</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>225</v>
+        <v>534</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>226</v>
+        <v>535</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>198</v>
+        <v>536</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12170,68 +12145,68 @@
         <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>228</v>
+        <v>531</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>222</v>
+        <v>539</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>79</v>
@@ -12240,20 +12215,18 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>259</v>
+        <v>544</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>260</v>
+        <v>545</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12277,11 +12250,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12299,13 +12274,13 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>263</v>
+        <v>542</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
@@ -12314,16 +12289,16 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>265</v>
+        <v>551</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12331,21 +12306,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12354,18 +12329,20 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>218</v>
+        <v>555</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>219</v>
+        <v>556</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12414,31 +12391,31 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>553</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>222</v>
+        <v>561</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12446,43 +12423,41 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>225</v>
+        <v>563</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12507,31 +12482,31 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>228</v>
+        <v>562</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12543,7 +12518,7 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12552,10 +12527,10 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>222</v>
+        <v>567</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12563,10 +12538,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12574,35 +12549,31 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12650,7 +12621,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12662,16 +12633,16 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12682,21 +12653,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12705,19 +12676,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12755,40 +12726,40 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12799,10 +12770,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12825,17 +12796,19 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O89" t="s" s="2">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12860,13 +12833,11 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12884,13 +12855,13 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>79</v>
@@ -12902,10 +12873,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12916,10 +12887,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12933,27 +12904,25 @@
         <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>79</v>
       </c>
@@ -13001,7 +12970,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -13013,16 +12982,16 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13033,21 +13002,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13056,23 +13025,21 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13108,40 +13075,40 @@
         <v>79</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13152,10 +13119,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13163,13 +13130,13 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>79</v>
@@ -13178,19 +13145,19 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13239,7 +13206,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13257,10 +13224,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13271,10 +13238,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13285,7 +13252,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13297,15 +13264,17 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>591</v>
+        <v>220</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>573</v>
+        <v>273</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13354,13 +13323,13 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>590</v>
+        <v>276</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
@@ -13372,13 +13341,13 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>593</v>
+        <v>278</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13386,10 +13355,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13397,7 +13366,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
@@ -13412,18 +13381,18 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>595</v>
+        <v>280</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13447,13 +13416,13 @@
         <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>79</v>
@@ -13471,13 +13440,13 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>594</v>
+        <v>284</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
@@ -13486,16 +13455,16 @@
         <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>601</v>
+        <v>285</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>602</v>
+        <v>286</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13503,10 +13472,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13517,10 +13486,10 @@
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>79</v>
@@ -13529,18 +13498,18 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>605</v>
+        <v>220</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>606</v>
+        <v>288</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13588,13 +13557,13 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>604</v>
+        <v>291</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
@@ -13603,16 +13572,16 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>610</v>
+        <v>292</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>611</v>
+        <v>293</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13620,10 +13589,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13634,7 +13603,7 @@
         <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13643,19 +13612,23 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>613</v>
+        <v>295</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>614</v>
+        <v>296</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13703,13 +13676,13 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>612</v>
+        <v>300</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
@@ -13718,13 +13691,13 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>617</v>
+        <v>301</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>618</v>
+        <v>302</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13735,44 +13708,46 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K97" t="s" s="2">
-        <v>621</v>
+        <v>220</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>622</v>
+        <v>304</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>623</v>
+        <v>305</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13808,25 +13783,25 @@
         <v>79</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>625</v>
+        <v>79</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>619</v>
+        <v>308</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
@@ -13835,13 +13810,13 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>628</v>
+        <v>309</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>629</v>
+        <v>310</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13852,45 +13827,41 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K98" t="s" s="2">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>622</v>
+        <v>563</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13939,7 +13910,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13954,16 +13925,16 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13971,16 +13942,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>633</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13996,19 +13965,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>621</v>
+        <v>241</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14034,13 +14003,13 @@
         <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14058,7 +14027,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14073,16 +14042,16 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14090,44 +14059,42 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K100" t="s" s="2">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14177,7 +14144,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14192,16 +14159,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14209,26 +14176,24 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>79</v>
@@ -14237,17 +14202,15 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14296,7 +14259,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14311,13 +14274,13 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -14328,23 +14291,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>88</v>
@@ -14356,16 +14317,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14403,19 +14364,19 @@
         <v>79</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14430,13 +14391,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14447,16 +14408,16 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14475,16 +14436,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14534,7 +14495,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14549,13 +14510,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14566,16 +14527,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14594,16 +14555,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14653,7 +14614,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14668,13 +14629,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14685,42 +14646,44 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="D105" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>653</v>
+        <v>614</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14770,7 +14733,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14785,13 +14748,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14802,46 +14765,46 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="D106" t="s" s="2">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>242</v>
+        <v>630</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>658</v>
+        <v>612</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>659</v>
+        <v>613</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>79</v>
       </c>
@@ -14865,13 +14828,13 @@
         <v>79</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>662</v>
+        <v>79</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>663</v>
+        <v>79</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
@@ -14889,7 +14852,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14904,41 +14867,43 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>664</v>
+        <v>619</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D107" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>79</v>
@@ -14947,15 +14912,17 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>48</v>
+        <v>612</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15004,7 +14971,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -15019,31 +14986,33 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>671</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="D108" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15053,24 +15022,26 @@
         <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>218</v>
+        <v>635</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15119,13 +15090,13 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>672</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>79</v>
@@ -15134,13 +15105,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15151,24 +15122,26 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="D109" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>79</v>
@@ -15177,16 +15150,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>679</v>
+        <v>613</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>680</v>
+        <v>614</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15236,7 +15209,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15251,23 +15224,606 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO109" t="s" s="2">
+      <c r="AM114" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO109">
+  <autoFilter ref="A1:AO114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15277,7 +15833,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI108">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="671">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1281,13 +1281,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSModalidadAtencionCodigo</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1318,9 +1312,6 @@
   </si>
   <si>
     <t>ServiceRequest.category.coding.code</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSModalidadAtencionCodigo</t>
   </si>
   <si>
     <t>ServiceRequest.category.coding.display</t>
@@ -1436,6 +1427,9 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
   </si>
   <si>
@@ -1676,7 +1670,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PractitionerRoleLE)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1745,7 +1739,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PractitionerRoleLE)
 </t>
   </si>
   <si>
@@ -2446,7 +2440,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8633,13 +8627,11 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8675,10 +8667,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>400</v>
@@ -8689,10 +8681,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8804,10 +8796,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8921,10 +8913,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9040,10 +9032,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9155,10 +9147,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9272,10 +9264,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9391,10 +9383,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9508,10 +9500,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9569,11 +9561,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9623,10 +9617,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9740,10 +9734,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9859,10 +9853,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9978,10 +9972,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10010,7 +10004,7 @@
         <v>201</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10018,7 +10012,7 @@
         <v>79</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -10042,10 +10036,10 @@
         <v>235</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10063,7 +10057,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10078,16 +10072,16 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10095,10 +10089,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10124,23 +10118,23 @@
         <v>295</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q66" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10184,7 +10178,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10199,13 +10193,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10216,10 +10210,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10245,10 +10239,10 @@
         <v>220</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10331,10 +10325,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10444,13 +10438,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>79</v>
@@ -10472,13 +10466,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10561,10 +10555,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10590,10 +10584,10 @@
         <v>295</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10644,7 +10638,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10676,14 +10670,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10705,13 +10699,13 @@
         <v>241</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10737,13 +10731,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10761,7 +10755,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10776,27 +10770,27 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10908,10 +10902,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11025,10 +11019,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11144,10 +11138,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11192,7 +11186,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -11263,14 +11257,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11292,13 +11286,13 @@
         <v>241</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11324,13 +11318,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11348,7 +11342,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11357,7 +11351,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>99</v>
@@ -11366,24 +11360,24 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11406,17 +11400,17 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11465,7 +11459,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11483,10 +11477,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11497,10 +11491,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11523,13 +11517,13 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11580,7 +11574,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11595,31 +11589,31 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11638,13 +11632,13 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11695,7 +11689,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11710,31 +11704,31 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11753,13 +11747,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11810,7 +11804,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11825,27 +11819,27 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11868,13 +11862,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11901,13 +11895,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11925,7 +11919,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11946,25 +11940,25 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11983,13 +11977,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12040,7 +12034,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12055,31 +12049,31 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12089,7 +12083,7 @@
         <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>79</v>
@@ -12098,16 +12092,16 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12157,7 +12151,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12172,31 +12166,31 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>541</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12218,13 +12212,13 @@
         <v>241</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12250,13 +12244,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12274,7 +12268,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12289,16 +12283,16 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12306,24 +12300,24 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>79</v>
@@ -12332,16 +12326,16 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12391,7 +12385,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12406,16 +12400,16 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AN85" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12423,10 +12417,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12452,10 +12446,10 @@
         <v>241</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12482,13 +12476,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12506,7 +12500,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12527,10 +12521,10 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12538,10 +12532,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12653,10 +12647,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12770,10 +12764,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12837,7 +12831,7 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12887,10 +12881,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13002,10 +12996,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13119,10 +13113,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13238,10 +13232,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13355,10 +13349,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13472,10 +13466,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13589,10 +13583,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13708,10 +13702,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13827,10 +13821,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13853,13 +13847,13 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13910,7 +13904,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13931,10 +13925,10 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13942,10 +13936,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13971,13 +13965,13 @@
         <v>241</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14003,13 +13997,13 @@
         <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14027,7 +14021,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14042,16 +14036,16 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14059,10 +14053,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14085,16 +14079,16 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14144,7 +14138,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14159,16 +14153,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AN100" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14176,10 +14170,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14202,13 +14196,13 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14259,7 +14253,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14274,13 +14268,13 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -14291,14 +14285,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14317,16 +14311,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14364,10 +14358,10 @@
         <v>79</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>79</v>
@@ -14376,7 +14370,7 @@
         <v>136</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14391,13 +14385,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14408,16 +14402,16 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14436,16 +14430,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14495,7 +14489,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14510,13 +14504,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14527,16 +14521,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14555,16 +14549,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14614,7 +14608,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14629,13 +14623,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14646,16 +14640,16 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14674,16 +14668,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14733,7 +14727,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14748,13 +14742,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14765,16 +14759,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14793,16 +14787,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14852,7 +14846,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14867,13 +14861,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14884,16 +14878,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>151</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14912,16 +14906,16 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14971,7 +14965,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14986,13 +14980,13 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15003,16 +14997,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15031,16 +15025,16 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15090,7 +15084,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15105,13 +15099,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15122,16 +15116,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15150,16 +15144,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15209,7 +15203,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15224,13 +15218,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15241,10 +15235,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15267,16 +15261,16 @@
         <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15326,7 +15320,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15344,10 +15338,10 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15358,14 +15352,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15387,16 +15381,16 @@
         <v>241</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>79</v>
@@ -15421,13 +15415,13 @@
         <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>79</v>
@@ -15445,7 +15439,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15463,24 +15457,24 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15503,13 +15497,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>48</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15560,7 +15554,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15575,27 +15569,27 @@
         <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>661</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15621,10 +15615,10 @@
         <v>220</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15675,7 +15669,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15693,10 +15687,10 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15707,10 +15701,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15733,16 +15727,16 @@
         <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15792,7 +15786,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15807,13 +15801,13 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$115</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,6 +639,22 @@
   </si>
   <si>
     <t>Destino Atención Codigo</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:PrevisionCodigo</t>
+  </si>
+  <si>
+    <t>PrevisionCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/PrevisionCodigoLE}
+</t>
+  </si>
+  <si>
+    <t>Previsión determinada  de aseguramiento de salud del paciente.</t>
+  </si>
+  <si>
+    <t>La previsión es la  variable determinada el sistema de aseguramiento de salud del paciente.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:PertinenciaInterconsulta</t>
@@ -2421,7 +2437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5199,7 +5215,7 @@
         <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5282,46 +5298,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5369,7 +5383,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>138</v>
@@ -5390,7 +5404,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5401,14 +5415,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5421,24 +5435,26 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5486,7 +5502,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5498,30 +5514,30 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5532,7 +5548,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5541,18 +5557,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5601,53 +5619,53 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5659,7 +5677,7 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>226</v>
@@ -5667,9 +5685,7 @@
       <c r="M28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5706,40 +5722,40 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5757,26 +5773,26 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>231</v>
@@ -5785,11 +5801,9 @@
         <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5813,52 +5827,52 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5869,10 +5883,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5880,34 +5894,34 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5932,13 +5946,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5956,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5974,10 +5988,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5988,10 +6002,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5999,31 +6013,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -6047,13 +6065,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -6071,7 +6089,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6083,16 +6101,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6103,21 +6121,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6129,7 +6147,7 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>226</v>
@@ -6137,9 +6155,7 @@
       <c r="M32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6176,40 +6192,40 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6220,46 +6236,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6295,19 +6309,19 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6319,16 +6333,16 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6339,10 +6353,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6350,31 +6364,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6422,28 +6440,28 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6454,21 +6472,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6480,7 +6498,7 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>226</v>
@@ -6488,9 +6506,7 @@
       <c r="M35" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6527,40 +6543,40 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6571,46 +6587,44 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6646,40 +6660,40 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6690,10 +6704,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6701,13 +6715,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6716,18 +6730,20 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6775,7 +6791,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6793,10 +6809,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6807,10 +6823,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6818,13 +6834,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6833,18 +6849,18 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>79</v>
@@ -6892,7 +6908,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6910,10 +6926,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6924,10 +6940,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6935,7 +6951,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
@@ -6950,17 +6966,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6970,7 +6986,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7009,7 +7025,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7027,10 +7043,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7041,10 +7057,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7058,7 +7074,7 @@
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>79</v>
@@ -7067,19 +7083,17 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7128,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7146,10 +7160,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7160,10 +7174,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7186,19 +7200,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7247,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7265,10 +7279,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7279,10 +7293,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7305,19 +7319,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7330,7 +7344,7 @@
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7366,7 +7380,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7384,10 +7398,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7398,10 +7412,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7409,13 +7423,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
@@ -7424,18 +7438,20 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7447,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7483,7 +7499,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7501,10 +7517,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7515,10 +7531,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7526,13 +7542,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -7541,15 +7557,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7562,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>79</v>
@@ -7598,7 +7616,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7616,10 +7634,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7630,10 +7648,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7656,17 +7674,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7715,7 +7731,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7733,10 +7749,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7747,10 +7763,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7761,7 +7777,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7773,16 +7789,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7832,13 +7848,13 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
@@ -7847,13 +7863,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7864,10 +7880,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7890,16 +7906,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7949,7 +7965,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7964,13 +7980,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7988,7 +8004,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8007,15 +8023,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8079,13 +8097,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8096,14 +8114,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8122,13 +8140,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8179,7 +8197,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8194,13 +8212,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8211,21 +8229,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8237,20 +8255,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8298,13 +8312,13 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
@@ -8313,13 +8327,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8330,44 +8344,46 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8391,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8415,10 +8431,10 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
@@ -8430,27 +8446,27 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8476,13 +8492,13 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8508,13 +8524,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8532,7 +8548,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -8547,27 +8563,27 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8575,7 +8591,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8584,26 +8600,24 @@
         <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8627,11 +8641,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8649,13 +8665,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8664,16 +8680,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8681,10 +8697,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8698,25 +8714,29 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8740,13 +8760,11 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8764,31 +8782,31 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>223</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>224</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8796,21 +8814,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8822,7 +8840,7 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>226</v>
@@ -8830,9 +8848,7 @@
       <c r="M55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8869,40 +8885,40 @@
         <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8913,46 +8929,44 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8988,19 +9002,19 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9012,16 +9026,16 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9032,10 +9046,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9043,31 +9057,35 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9115,28 +9133,28 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9147,21 +9165,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9173,7 +9191,7 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>226</v>
@@ -9181,9 +9199,7 @@
       <c r="M58" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9220,40 +9236,40 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF58" t="s" s="2">
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9264,46 +9280,44 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9339,40 +9353,40 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9383,10 +9397,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9400,7 +9414,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
@@ -9409,18 +9423,20 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9468,7 +9484,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9486,10 +9502,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9500,10 +9516,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9511,13 +9527,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>79</v>
@@ -9526,18 +9542,18 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9585,7 +9601,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9603,10 +9619,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9617,10 +9633,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9628,7 +9644,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -9643,17 +9659,17 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9702,7 +9718,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9720,10 +9736,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9734,10 +9750,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9751,7 +9767,7 @@
         <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>79</v>
@@ -9760,19 +9776,17 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9821,7 +9835,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9839,10 +9853,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9853,10 +9867,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9879,19 +9893,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9940,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9958,10 +9972,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9972,10 +9986,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9989,7 +10003,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>79</v>
@@ -9998,22 +10012,24 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10033,13 +10049,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10057,7 +10073,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10072,16 +10088,16 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10089,10 +10105,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10109,31 +10125,27 @@
         <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>206</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q66" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -10154,13 +10166,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10178,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10193,16 +10205,16 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10210,10 +10222,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10227,29 +10239,35 @@
         <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10293,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10305,16 +10323,16 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10325,10 +10343,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10339,7 +10357,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10351,13 +10369,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10396,29 +10414,31 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10438,14 +10458,12 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10454,10 +10472,10 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>79</v>
@@ -10466,13 +10484,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>133</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>444</v>
+        <v>134</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10511,19 +10529,17 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10532,7 +10548,7 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>138</v>
@@ -10555,12 +10571,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10572,7 +10590,7 @@
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>79</v>
@@ -10581,13 +10599,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>295</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10638,19 +10656,19 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>234</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10670,14 +10688,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10687,16 +10705,16 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>451</v>
@@ -10704,9 +10722,7 @@
       <c r="M71" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10731,13 +10747,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10755,7 +10771,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10767,34 +10783,34 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10804,24 +10820,26 @@
         <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10846,13 +10864,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10870,7 +10888,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>223</v>
+        <v>454</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10882,41 +10900,41 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>224</v>
+        <v>464</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10928,7 +10946,7 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>226</v>
@@ -10936,9 +10954,7 @@
       <c r="M73" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10975,40 +10991,40 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF73" t="s" s="2">
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11019,14 +11035,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11042,23 +11058,21 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11094,19 +11108,19 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11118,16 +11132,16 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11138,10 +11152,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11149,13 +11163,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>79</v>
@@ -11164,19 +11178,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11186,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -11225,13 +11239,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -11243,10 +11257,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11257,24 +11271,24 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>79</v>
@@ -11283,18 +11297,20 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11303,7 +11319,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11318,13 +11334,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11342,16 +11358,16 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>467</v>
+        <v>313</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>99</v>
@@ -11360,35 +11376,35 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>459</v>
+        <v>315</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11400,18 +11416,18 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>477</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11435,13 +11451,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11459,16 +11475,16 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>99</v>
@@ -11477,24 +11493,24 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11502,13 +11518,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>79</v>
@@ -11517,16 +11533,18 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11574,10 +11592,10 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>87</v>
@@ -11589,41 +11607,41 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>79</v>
@@ -11632,13 +11650,13 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11689,10 +11707,10 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>87</v>
@@ -11704,31 +11722,31 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11747,13 +11765,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11804,7 +11822,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11819,31 +11837,31 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11862,13 +11880,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11895,13 +11913,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11919,7 +11937,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11934,31 +11952,31 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11968,7 +11986,7 @@
         <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>79</v>
@@ -11977,13 +11995,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12010,13 +12028,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12034,7 +12052,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12049,31 +12067,31 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12083,7 +12101,7 @@
         <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>79</v>
@@ -12092,17 +12110,15 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12151,7 +12167,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12166,31 +12182,31 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12209,16 +12225,16 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>241</v>
+        <v>536</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12244,13 +12260,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12268,7 +12284,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12283,31 +12299,31 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12317,7 +12333,7 @@
         <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>79</v>
@@ -12326,16 +12342,16 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>553</v>
+        <v>246</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12361,13 +12377,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12385,13 +12401,13 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
@@ -12400,16 +12416,16 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12417,14 +12433,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12443,15 +12459,17 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>241</v>
+        <v>558</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12476,13 +12494,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12500,7 +12518,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12515,16 +12533,16 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12532,10 +12550,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12549,22 +12567,22 @@
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>221</v>
+        <v>566</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>222</v>
+        <v>567</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12591,13 +12609,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12615,19 +12633,19 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>223</v>
+        <v>565</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
@@ -12636,10 +12654,10 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>224</v>
+        <v>570</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12647,21 +12665,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12673,7 +12691,7 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>226</v>
@@ -12681,9 +12699,7 @@
       <c r="M88" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12720,40 +12736,40 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF88" t="s" s="2">
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12764,46 +12780,44 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12827,29 +12841,31 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y89" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z89" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12861,16 +12877,16 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12881,10 +12897,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12892,31 +12908,35 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12940,13 +12960,11 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -12964,28 +12982,28 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12996,21 +13014,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13022,7 +13040,7 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>226</v>
@@ -13030,9 +13048,7 @@
       <c r="M91" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13069,40 +13085,40 @@
         <v>79</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF91" t="s" s="2">
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13113,46 +13129,44 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13188,40 +13202,40 @@
         <v>79</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13232,10 +13246,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13243,13 +13257,13 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>79</v>
@@ -13258,18 +13272,20 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13317,7 +13333,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13335,10 +13351,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13349,10 +13365,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13360,13 +13376,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>79</v>
@@ -13375,18 +13391,18 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13434,7 +13450,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13452,10 +13468,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13466,10 +13482,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13477,7 +13493,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>87</v>
@@ -13492,17 +13508,17 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13551,7 +13567,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13569,10 +13585,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13583,10 +13599,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13600,7 +13616,7 @@
         <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>79</v>
@@ -13609,19 +13625,17 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13670,7 +13684,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13688,10 +13702,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13702,10 +13716,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13728,19 +13742,19 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -13789,7 +13803,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13807,10 +13821,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13821,10 +13835,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13835,7 +13849,7 @@
         <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>79</v>
@@ -13847,16 +13861,20 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>579</v>
+        <v>225</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>561</v>
+        <v>309</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13904,13 +13922,13 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>578</v>
+        <v>313</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>79</v>
@@ -13922,13 +13940,13 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>581</v>
+        <v>315</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13936,10 +13954,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13950,10 +13968,10 @@
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>79</v>
@@ -13962,17 +13980,15 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>241</v>
+        <v>584</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N99" t="s" s="2">
         <v>585</v>
       </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -13997,13 +14013,13 @@
         <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14021,7 +14037,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14036,16 +14052,16 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>589</v>
+        <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14053,10 +14069,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14067,10 +14083,10 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>79</v>
@@ -14079,16 +14095,16 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>593</v>
+        <v>246</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14114,13 +14130,13 @@
         <v>79</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14138,7 +14154,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14153,16 +14169,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14170,10 +14186,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14193,18 +14209,20 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14253,7 +14271,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14268,16 +14286,16 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="AN101" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14285,14 +14303,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14302,7 +14320,7 @@
         <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>79</v>
@@ -14311,17 +14329,15 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14358,19 +14374,19 @@
         <v>79</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14385,13 +14401,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14402,23 +14418,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>88</v>
@@ -14430,16 +14444,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14477,19 +14491,19 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14504,13 +14518,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14521,16 +14535,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14549,16 +14563,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14608,7 +14622,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14623,13 +14637,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14640,16 +14654,16 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14668,16 +14682,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14727,7 +14741,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14742,13 +14756,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14759,16 +14773,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14787,16 +14801,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14846,7 +14860,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14861,13 +14875,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14878,16 +14892,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>151</v>
+        <v>632</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14906,16 +14920,16 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14965,7 +14979,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14980,13 +14994,13 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -14997,16 +15011,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>632</v>
+        <v>151</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15025,16 +15039,16 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15084,7 +15098,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15099,13 +15113,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15116,16 +15130,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15144,16 +15158,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15203,7 +15217,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15218,13 +15232,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15235,42 +15249,44 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C110" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="D110" t="s" s="2">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15320,7 +15336,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15335,13 +15351,13 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15352,14 +15368,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15378,20 +15394,18 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>241</v>
+        <v>643</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>649</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>79</v>
       </c>
@@ -15415,13 +15429,13 @@
         <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>79</v>
@@ -15439,7 +15453,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15457,28 +15471,28 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15494,19 +15508,23 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>655</v>
+        <v>246</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>48</v>
+        <v>651</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15530,13 +15548,13 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>79</v>
+        <v>655</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
@@ -15554,7 +15572,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15569,27 +15587,27 @@
         <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="AL112" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>659</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15600,7 +15618,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>79</v>
@@ -15609,16 +15627,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15669,13 +15687,13 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>79</v>
@@ -15684,10 +15702,10 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>79</v>
+        <v>662</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>663</v>
@@ -15696,15 +15714,15 @@
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15715,7 +15733,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15724,10 +15742,10 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>665</v>
+        <v>225</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>666</v>
@@ -15735,9 +15753,7 @@
       <c r="M114" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -15786,13 +15802,13 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>79</v>
@@ -15801,23 +15817,140 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="AL114" t="s" s="2">
+      <c r="B115" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM114" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO114" t="s" s="2">
+      <c r="AM115" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO115" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO114">
+  <autoFilter ref="A1:AO115">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15827,7 +15960,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI114">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="674">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1786,10 +1786,7 @@
     <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
   </si>
   <si>
-    <t>A location type where services are delivered.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSDestinoReferenciaCodigo</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
@@ -1802,9 +1799,6 @@
   </si>
   <si>
     <t>ServiceRequest.locationCode.coding</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSDestinoReferenciaCodigo</t>
   </si>
   <si>
     <t>ServiceRequest.locationCode.coding.id</t>
@@ -2471,7 +2465,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.16015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -12609,13 +12603,11 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y87" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y87" s="2"/>
+      <c r="Z87" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12654,7 +12646,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>555</v>
@@ -12665,10 +12657,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12780,10 +12772,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12897,10 +12889,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12960,11 +12952,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y90" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z90" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13014,10 +13008,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13129,10 +13123,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13246,10 +13240,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13365,10 +13359,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13482,10 +13476,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13599,10 +13593,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13716,10 +13710,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13835,10 +13829,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13954,10 +13948,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13980,13 +13974,13 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>566</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14037,7 +14031,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14058,7 +14052,7 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>555</v>
@@ -14069,10 +14063,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14098,13 +14092,13 @@
         <v>246</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14133,10 +14127,10 @@
         <v>459</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14154,7 +14148,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14169,16 +14163,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14186,10 +14180,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14212,16 +14206,16 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14271,7 +14265,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14286,16 +14280,16 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AL101" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AN101" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14303,10 +14297,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14329,13 +14323,13 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14386,7 +14380,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14401,13 +14395,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14418,14 +14412,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14444,16 +14438,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14491,10 +14485,10 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
@@ -14503,7 +14497,7 @@
         <v>136</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14518,13 +14512,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14535,16 +14529,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14563,16 +14557,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14622,7 +14616,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14637,13 +14631,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14654,16 +14648,16 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14682,16 +14676,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14741,7 +14735,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14756,13 +14750,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14773,16 +14767,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14801,16 +14795,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14860,7 +14854,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14875,13 +14869,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14892,16 +14886,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14920,16 +14914,16 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14979,7 +14973,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14994,13 +14988,13 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15011,16 +15005,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>151</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15039,16 +15033,16 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15098,7 +15092,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15113,13 +15107,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15130,16 +15124,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15158,16 +15152,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15217,7 +15211,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15232,13 +15226,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15249,16 +15243,16 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15277,16 +15271,16 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15336,7 +15330,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15351,13 +15345,13 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15368,10 +15362,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15394,16 +15388,16 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15453,7 +15447,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15471,10 +15465,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15485,14 +15479,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15514,16 +15508,16 @@
         <v>246</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -15551,10 +15545,10 @@
         <v>459</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
@@ -15572,7 +15566,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15590,24 +15584,24 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15630,13 +15624,13 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>48</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15687,7 +15681,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15702,27 +15696,27 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>480</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15748,10 +15742,10 @@
         <v>225</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15802,7 +15796,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15823,7 +15817,7 @@
         <v>480</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15834,10 +15828,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15860,16 +15854,16 @@
         <v>79</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15919,7 +15913,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15934,13 +15928,13 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -651,10 +651,10 @@
 </t>
   </si>
   <si>
-    <t>Previsión determinada  de aseguramiento de salud del paciente.</t>
-  </si>
-  <si>
-    <t>La previsión es la  variable determinada el sistema de aseguramiento de salud del paciente.</t>
+    <t>Previsión determinada de aseguramiento de salud del paciente.</t>
+  </si>
+  <si>
+    <t>La previsión es la variable que determina sistema de aseguramiento de salud del paciente.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:PertinenciaInterconsulta</t>
@@ -847,6 +847,9 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://terminology.cens.cl/CodeSystem/listaespera</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -1935,7 +1938,7 @@
     <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:use}
+    <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
   <si>
@@ -2440,17 +2443,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2459,27 +2462,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.21484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6410,13 +6413,11 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6434,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6452,10 +6453,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6466,10 +6467,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6581,10 +6582,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6698,10 +6699,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6727,16 +6728,16 @@
         <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6785,7 +6786,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6803,10 +6804,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6817,10 +6818,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6846,13 +6847,13 @@
         <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6902,7 +6903,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6920,10 +6921,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6934,10 +6935,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6963,14 +6964,14 @@
         <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6980,7 +6981,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7019,7 +7020,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7037,10 +7038,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7051,10 +7052,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7080,14 +7081,14 @@
         <v>225</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7136,7 +7137,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7154,10 +7155,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7168,10 +7169,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7194,19 +7195,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7256,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7273,10 +7274,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7287,10 +7288,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7316,16 +7317,16 @@
         <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7374,7 +7375,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7392,10 +7393,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7406,10 +7407,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7435,16 +7436,16 @@
         <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7457,7 +7458,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7493,7 +7494,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7511,10 +7512,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7525,10 +7526,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7554,13 +7555,13 @@
         <v>225</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7574,7 +7575,7 @@
         <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7611,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7628,10 +7629,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7642,10 +7643,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7668,13 +7669,13 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7725,7 +7726,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7743,10 +7744,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7757,10 +7758,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7783,16 +7784,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7842,7 +7843,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7860,10 +7861,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7874,10 +7875,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7900,16 +7901,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7959,7 +7960,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7974,13 +7975,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7991,10 +7992,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8020,13 +8021,13 @@
         <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8076,7 +8077,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8091,13 +8092,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8108,14 +8109,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8134,13 +8135,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8191,7 +8192,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8206,13 +8207,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8223,14 +8224,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8249,13 +8250,13 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8306,7 +8307,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8321,13 +8322,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8338,14 +8339,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8367,16 +8368,16 @@
         <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8425,7 +8426,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8440,13 +8441,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8457,10 +8458,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8486,13 +8487,13 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8521,10 +8522,10 @@
         <v>240</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8542,7 +8543,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -8557,27 +8558,27 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8603,13 +8604,13 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8638,10 +8639,10 @@
         <v>240</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8659,7 +8660,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
@@ -8674,16 +8675,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8691,10 +8692,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8720,16 +8721,16 @@
         <v>246</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8758,7 +8759,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8776,7 +8777,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8794,13 +8795,13 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8808,10 +8809,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8923,10 +8924,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9040,10 +9041,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9127,7 +9128,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9145,10 +9146,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9159,10 +9160,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9274,10 +9275,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9391,10 +9392,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9420,16 +9421,16 @@
         <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9478,7 +9479,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9496,10 +9497,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9510,10 +9511,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9539,13 +9540,13 @@
         <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9595,7 +9596,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9613,10 +9614,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9627,10 +9628,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9656,14 +9657,14 @@
         <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9712,7 +9713,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9730,10 +9731,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9744,10 +9745,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9773,14 +9774,14 @@
         <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9829,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9847,10 +9848,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9861,10 +9862,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9887,19 +9888,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9948,7 +9949,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9966,10 +9967,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9980,10 +9981,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10009,16 +10010,16 @@
         <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10067,7 +10068,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10085,10 +10086,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10099,10 +10100,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10131,7 +10132,7 @@
         <v>206</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10139,7 +10140,7 @@
         <v>79</v>
       </c>
       <c r="Q66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -10163,10 +10164,10 @@
         <v>240</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10184,7 +10185,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10199,16 +10200,16 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10216,10 +10217,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10242,70 +10243,70 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10320,13 +10321,13 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10337,10 +10338,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10366,10 +10367,10 @@
         <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10452,10 +10453,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10565,13 +10566,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="C70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
@@ -10593,13 +10594,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10682,10 +10683,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10708,13 +10709,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10765,7 +10766,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10797,14 +10798,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10826,13 +10827,13 @@
         <v>246</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10858,13 +10859,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10882,7 +10883,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10897,27 +10898,27 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11029,10 +11030,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11146,10 +11147,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11233,7 +11234,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11251,10 +11252,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11265,10 +11266,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11294,16 +11295,16 @@
         <v>225</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11313,7 +11314,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11352,7 +11353,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11370,10 +11371,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11384,14 +11385,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11413,13 +11414,13 @@
         <v>246</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11445,13 +11446,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11469,7 +11470,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11478,7 +11479,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>99</v>
@@ -11487,24 +11488,24 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11527,17 +11528,17 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11586,7 +11587,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11604,10 +11605,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11618,10 +11619,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11644,13 +11645,13 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11701,7 +11702,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>87</v>
@@ -11716,31 +11717,31 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11759,13 +11760,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11816,7 +11817,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11831,31 +11832,31 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11874,13 +11875,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11931,7 +11932,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11946,27 +11947,27 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11989,13 +11990,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12022,13 +12023,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12046,7 +12047,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12067,25 +12068,25 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12104,13 +12105,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12161,7 +12162,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12176,31 +12177,31 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12219,16 +12220,16 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12278,7 +12279,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12293,31 +12294,31 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12339,13 +12340,13 @@
         <v>246</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12371,13 +12372,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12395,7 +12396,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12410,16 +12411,16 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12427,14 +12428,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12453,16 +12454,16 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12512,7 +12513,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12527,16 +12528,16 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12544,10 +12545,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12573,10 +12574,10 @@
         <v>246</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12607,7 +12608,7 @@
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12625,7 +12626,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12646,10 +12647,10 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12657,10 +12658,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12772,10 +12773,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12889,10 +12890,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12976,7 +12977,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12994,10 +12995,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13008,10 +13009,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13123,10 +13124,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13240,10 +13241,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13269,16 +13270,16 @@
         <v>101</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13327,7 +13328,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13345,10 +13346,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13359,10 +13360,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13388,13 +13389,13 @@
         <v>225</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13444,7 +13445,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13462,10 +13463,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13476,10 +13477,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13505,14 +13506,14 @@
         <v>107</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13561,7 +13562,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13579,10 +13580,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13593,10 +13594,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13622,14 +13623,14 @@
         <v>225</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13678,7 +13679,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13696,10 +13697,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13710,10 +13711,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13736,19 +13737,19 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -13797,7 +13798,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13815,10 +13816,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13829,10 +13830,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13858,16 +13859,16 @@
         <v>225</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13916,7 +13917,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13934,10 +13935,10 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13948,10 +13949,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13974,13 +13975,13 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14031,7 +14032,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14052,10 +14053,10 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14063,10 +14064,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14092,13 +14093,13 @@
         <v>246</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14124,13 +14125,13 @@
         <v>79</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14148,7 +14149,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14163,16 +14164,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14180,10 +14181,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14206,16 +14207,16 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14265,7 +14266,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14280,16 +14281,16 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14297,10 +14298,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14323,13 +14324,13 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14380,7 +14381,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14395,13 +14396,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14412,14 +14413,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14438,16 +14439,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14485,10 +14486,10 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
@@ -14497,7 +14498,7 @@
         <v>136</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14512,13 +14513,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14529,16 +14530,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14557,16 +14558,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14616,7 +14617,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14631,13 +14632,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14648,16 +14649,16 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14676,16 +14677,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14735,7 +14736,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14750,13 +14751,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14767,16 +14768,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14795,16 +14796,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14854,7 +14855,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14869,13 +14870,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14886,16 +14887,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14914,16 +14915,16 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14973,7 +14974,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14988,13 +14989,13 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15005,16 +15006,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>151</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15033,16 +15034,16 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15092,7 +15093,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15107,13 +15108,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15124,16 +15125,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15152,16 +15153,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15211,7 +15212,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15226,13 +15227,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15243,16 +15244,16 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15271,16 +15272,16 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15330,7 +15331,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15345,13 +15346,13 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15362,10 +15363,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15388,16 +15389,16 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15447,7 +15448,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15465,10 +15466,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15479,14 +15480,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15508,16 +15509,16 @@
         <v>246</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
@@ -15542,13 +15543,13 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
@@ -15566,7 +15567,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15584,24 +15585,24 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15624,13 +15625,13 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>48</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15681,7 +15682,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15696,27 +15697,27 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15742,10 +15743,10 @@
         <v>225</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15796,7 +15797,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15814,10 +15815,10 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15828,10 +15829,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15854,16 +15855,16 @@
         <v>79</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15913,7 +15914,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15928,13 +15929,13 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-ServiceRequestLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$116</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,6 +479,22 @@
     <t>ExtBool RequiereExamen</t>
   </si>
   <si>
+    <t>ServiceRequest.extension:AtencionPreferente</t>
+  </si>
+  <si>
+    <t>AtencionPreferente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtBoolAtencionPreferente}
+</t>
+  </si>
+  <si>
+    <t>ExtBool Atención Preferente</t>
+  </si>
+  <si>
+    <t>ExtBool ¿Hace uso de atención preferente?</t>
+  </si>
+  <si>
     <t>ServiceRequest.extension:SospechaGES</t>
   </si>
   <si>
@@ -1237,6 +1253,9 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
+    <t>draft</t>
+  </si>
+  <si>
     <t>The status of a service order.</t>
   </si>
   <si>
@@ -1343,6 +1362,9 @@
   </si>
   <si>
     <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>Prioridad Recomendada Interconsulta de Origen: routine=normal | urgent=urgente | asap=prioritario</t>
   </si>
   <si>
     <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
@@ -1853,10 +1875,7 @@
     <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSDerivadoParaCodigo</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -2434,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO115"/>
+  <dimension ref="A1:AO116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3808,7 +3827,7 @@
         <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3891,13 +3910,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3919,10 +3938,10 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>156</v>
@@ -4159,7 +4178,7 @@
         <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4242,13 +4261,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -4270,13 +4289,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4359,13 +4378,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>79</v>
@@ -4387,13 +4406,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4476,13 +4495,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
@@ -4504,13 +4523,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4593,13 +4612,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -4621,13 +4640,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4710,13 +4729,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4738,13 +4757,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4827,13 +4846,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
@@ -4855,13 +4874,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4944,13 +4963,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4972,13 +4991,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5061,13 +5080,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -5089,13 +5108,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5178,13 +5197,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
@@ -5206,10 +5225,10 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>202</v>
@@ -5329,7 +5348,7 @@
         <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5412,46 +5431,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5508,7 +5525,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>138</v>
@@ -5520,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5531,14 +5548,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5551,24 +5568,26 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5628,30 +5647,30 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5665,24 +5684,26 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5731,53 +5752,53 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5789,7 +5810,7 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>231</v>
@@ -5797,9 +5818,7 @@
       <c r="M29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5836,40 +5855,40 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5887,26 +5906,26 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>236</v>
@@ -5915,11 +5934,9 @@
         <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5943,52 +5960,52 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5999,10 +6016,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6010,34 +6027,34 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -6062,13 +6079,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -6086,7 +6103,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -6104,10 +6121,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6118,10 +6135,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6129,31 +6146,35 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -6177,13 +6198,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -6201,7 +6222,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6213,16 +6234,16 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6233,21 +6254,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6259,7 +6280,7 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>231</v>
@@ -6267,9 +6288,7 @@
       <c r="M33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6306,40 +6325,40 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6350,46 +6369,44 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6413,29 +6430,31 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6447,16 +6466,16 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6467,10 +6486,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6478,31 +6497,35 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6526,13 +6549,11 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6550,28 +6571,28 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6582,21 +6603,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6608,7 +6629,7 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>231</v>
@@ -6616,9 +6637,7 @@
       <c r="M36" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6655,40 +6674,40 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF36" t="s" s="2">
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6699,46 +6718,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6774,40 +6791,40 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6818,10 +6835,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6835,7 +6852,7 @@
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6844,18 +6861,20 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6903,7 +6922,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6921,10 +6940,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6935,10 +6954,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6946,13 +6965,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
@@ -6961,18 +6980,18 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6981,7 +7000,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -7020,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7038,10 +7057,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7052,10 +7071,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7063,7 +7082,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -7078,17 +7097,17 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7098,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -7137,7 +7156,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7155,10 +7174,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7169,10 +7188,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7186,7 +7205,7 @@
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
@@ -7195,19 +7214,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7256,7 +7273,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7274,10 +7291,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7288,10 +7305,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7314,19 +7331,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7392,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7393,10 +7410,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7407,10 +7424,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7433,19 +7450,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7458,7 +7475,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7494,7 +7511,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7512,10 +7529,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7526,10 +7543,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7537,13 +7554,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -7552,18 +7569,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7575,7 +7594,7 @@
         <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>79</v>
@@ -7611,7 +7630,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7629,10 +7648,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7643,10 +7662,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7654,13 +7673,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>79</v>
@@ -7669,15 +7688,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7690,7 +7711,7 @@
         <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>79</v>
@@ -7726,7 +7747,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7744,10 +7765,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7758,10 +7779,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7784,17 +7805,15 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7843,7 +7862,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7861,10 +7880,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7875,10 +7894,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7889,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7901,16 +7920,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7960,13 +7979,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7975,13 +7994,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7992,10 +8011,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8018,16 +8037,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8077,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8092,13 +8111,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8135,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8135,15 +8154,17 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8207,13 +8228,13 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8224,14 +8245,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8250,13 +8271,13 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8307,7 +8328,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8322,13 +8343,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8339,21 +8360,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8365,20 +8386,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8426,13 +8443,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8441,13 +8458,13 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8458,44 +8475,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8519,13 +8538,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8543,10 +8562,10 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -8558,27 +8577,27 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8604,13 +8623,13 @@
         <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8621,7 +8640,7 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>79</v>
@@ -8636,13 +8655,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8660,7 +8679,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
@@ -8675,27 +8694,27 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8703,7 +8722,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
@@ -8712,26 +8731,24 @@
         <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8755,11 +8772,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8777,13 +8796,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8792,16 +8811,16 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8809,10 +8828,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8826,25 +8845,29 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>226</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8868,13 +8891,11 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8892,31 +8913,31 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>228</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>229</v>
+        <v>420</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8924,21 +8945,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8950,7 +8971,7 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>231</v>
@@ -8958,9 +8979,7 @@
       <c r="M56" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8997,40 +9016,40 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF56" t="s" s="2">
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9041,46 +9060,44 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9116,19 +9133,19 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -9140,16 +9157,16 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9160,10 +9177,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9171,31 +9188,35 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9243,28 +9264,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9275,21 +9296,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9301,7 +9322,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>231</v>
@@ -9309,9 +9330,7 @@
       <c r="M59" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9348,40 +9367,40 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF59" t="s" s="2">
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9392,46 +9411,44 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9467,40 +9484,40 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9511,10 +9528,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9528,7 +9545,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>79</v>
@@ -9537,18 +9554,20 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9596,7 +9615,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9614,10 +9633,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9628,10 +9647,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9639,13 +9658,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>79</v>
@@ -9654,18 +9673,18 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9713,7 +9732,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9731,10 +9750,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9745,10 +9764,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9756,7 +9775,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -9771,17 +9790,17 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9849,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9848,10 +9867,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9862,10 +9881,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9879,7 +9898,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>79</v>
@@ -9888,19 +9907,17 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9949,7 +9966,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9967,10 +9984,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9981,10 +9998,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10007,19 +10024,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10068,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10086,10 +10103,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10100,10 +10117,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10117,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>79</v>
@@ -10126,22 +10143,24 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q66" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10161,13 +10180,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10185,7 +10204,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10200,16 +10219,16 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10217,10 +10236,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10237,59 +10256,55 @@
         <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10306,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10321,16 +10336,16 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10338,10 +10353,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10355,29 +10370,35 @@
         <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10421,7 +10442,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>228</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10433,16 +10454,16 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10453,10 +10474,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10467,7 +10488,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10479,13 +10500,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>133</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10524,29 +10545,31 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10566,14 +10589,12 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10582,10 +10603,10 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>79</v>
@@ -10594,13 +10615,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>449</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>133</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>134</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10639,19 +10660,17 @@
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10660,7 +10679,7 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>138</v>
@@ -10683,12 +10702,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10700,7 +10721,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>79</v>
@@ -10709,13 +10730,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>301</v>
+        <v>456</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10766,19 +10787,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>239</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10798,14 +10819,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10815,26 +10836,24 @@
         <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10859,31 +10878,31 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10895,34 +10914,34 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10932,24 +10951,26 @@
         <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10974,13 +10995,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10998,7 +11019,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>228</v>
+        <v>462</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11010,41 +11031,41 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11056,7 +11077,7 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>231</v>
@@ -11064,9 +11085,7 @@
       <c r="M74" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11103,40 +11122,40 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF74" t="s" s="2">
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11147,14 +11166,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11170,23 +11189,21 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11222,19 +11239,19 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11246,16 +11263,16 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11266,10 +11283,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11277,13 +11294,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>79</v>
@@ -11292,19 +11309,19 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11314,7 +11331,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -11353,13 +11370,13 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
@@ -11371,10 +11388,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11385,24 +11402,24 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>79</v>
@@ -11411,18 +11428,20 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>476</v>
+        <v>316</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11431,7 +11450,7 @@
         <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11446,13 +11465,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11470,16 +11489,16 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>319</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>99</v>
@@ -11488,35 +11507,35 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>481</v>
+        <v>320</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11528,18 +11547,18 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>486</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11563,13 +11582,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11587,16 +11606,16 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>99</v>
@@ -11605,24 +11624,24 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11630,13 +11649,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>79</v>
@@ -11645,16 +11664,18 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11702,10 +11723,10 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>87</v>
@@ -11717,41 +11738,41 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>494</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>79</v>
@@ -11760,13 +11781,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11817,10 +11838,10 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>87</v>
@@ -11832,31 +11853,31 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11875,13 +11896,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11932,7 +11953,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11947,31 +11968,31 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11990,13 +12011,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12023,13 +12044,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12047,7 +12068,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12062,31 +12083,31 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>524</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12096,7 +12117,7 @@
         <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>79</v>
@@ -12105,13 +12126,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12138,13 +12159,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -12162,7 +12183,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12177,31 +12198,31 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12211,7 +12232,7 @@
         <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>79</v>
@@ -12220,17 +12241,15 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12279,7 +12298,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12294,31 +12313,31 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>545</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12337,16 +12356,16 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>246</v>
+        <v>544</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12372,13 +12391,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12396,7 +12415,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12411,31 +12430,31 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12445,7 +12464,7 @@
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>79</v>
@@ -12454,16 +12473,16 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>559</v>
+        <v>251</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12489,13 +12508,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12513,13 +12532,13 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
@@ -12528,16 +12547,16 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12545,14 +12564,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12571,7 +12590,7 @@
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>246</v>
+        <v>566</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>567</v>
@@ -12579,7 +12598,9 @@
       <c r="M87" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12604,11 +12625,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12626,7 +12649,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12641,16 +12664,16 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12658,10 +12681,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12675,22 +12698,22 @@
         <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>226</v>
+        <v>574</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>227</v>
+        <v>575</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12717,13 +12740,11 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12741,19 +12762,19 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>228</v>
+        <v>573</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
@@ -12762,10 +12783,10 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>229</v>
+        <v>577</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12773,21 +12794,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12799,7 +12820,7 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>231</v>
@@ -12807,9 +12828,7 @@
       <c r="M89" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12846,40 +12865,40 @@
         <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF89" t="s" s="2">
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12890,46 +12909,44 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12965,19 +12982,19 @@
         <v>79</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12989,16 +13006,16 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13009,10 +13026,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13020,31 +13037,35 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
       </c>
@@ -13092,28 +13113,28 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13124,21 +13145,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -13150,7 +13171,7 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>231</v>
@@ -13158,9 +13179,7 @@
       <c r="M92" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13197,40 +13216,40 @@
         <v>79</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF92" t="s" s="2">
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13241,46 +13260,44 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13316,40 +13333,40 @@
         <v>79</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13360,10 +13377,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13371,13 +13388,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>79</v>
@@ -13386,18 +13403,20 @@
         <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O94" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13445,7 +13464,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
@@ -13463,10 +13482,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13477,10 +13496,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13488,13 +13507,13 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>79</v>
@@ -13503,18 +13522,18 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13562,7 +13581,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -13580,10 +13599,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13594,10 +13613,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13605,7 +13624,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>87</v>
@@ -13620,17 +13639,17 @@
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13679,7 +13698,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13697,10 +13716,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13711,10 +13730,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13728,7 +13747,7 @@
         <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>79</v>
@@ -13737,19 +13756,17 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
@@ -13798,7 +13815,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13816,10 +13833,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13830,10 +13847,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13856,19 +13873,19 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13917,7 +13934,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13935,10 +13952,10 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13949,10 +13966,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13963,7 +13980,7 @@
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -13975,16 +13992,20 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>583</v>
+        <v>230</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>567</v>
+        <v>315</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
       </c>
@@ -14032,13 +14053,13 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>582</v>
+        <v>319</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>79</v>
@@ -14050,13 +14071,13 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>585</v>
+        <v>321</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14064,10 +14085,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14078,10 +14099,10 @@
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>79</v>
@@ -14090,17 +14111,15 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>246</v>
+        <v>590</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14125,13 +14144,13 @@
         <v>79</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>590</v>
+        <v>79</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>79</v>
@@ -14149,7 +14168,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
@@ -14164,16 +14183,16 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="AN100" t="s" s="2">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14181,10 +14200,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14195,10 +14214,10 @@
         <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>79</v>
@@ -14207,16 +14226,16 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>597</v>
+        <v>251</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14242,13 +14261,11 @@
         <v>79</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>79</v>
@@ -14266,7 +14283,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
@@ -14281,16 +14298,16 @@
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14298,10 +14315,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14321,18 +14338,20 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14381,7 +14400,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14396,16 +14415,16 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AL102" t="s" s="2">
+      <c r="AM102" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AM102" t="s" s="2">
-        <v>610</v>
-      </c>
       <c r="AN102" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14413,14 +14432,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14430,7 +14449,7 @@
         <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>79</v>
@@ -14439,17 +14458,15 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L103" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>616</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14486,19 +14503,19 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14513,13 +14530,13 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14530,23 +14547,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>88</v>
@@ -14558,16 +14573,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14605,19 +14620,19 @@
         <v>79</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>79</v>
+        <v>623</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -14632,13 +14647,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14649,16 +14664,16 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14677,16 +14692,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14736,7 +14751,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14751,13 +14766,13 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14768,16 +14783,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14796,16 +14811,16 @@
         <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14855,7 +14870,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
@@ -14870,13 +14885,13 @@
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14887,16 +14902,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14915,16 +14930,16 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14974,7 +14989,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14989,13 +15004,13 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15006,16 +15021,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>151</v>
+        <v>637</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15034,16 +15049,16 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15093,7 +15108,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -15108,13 +15123,13 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15125,16 +15140,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>636</v>
+        <v>156</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15153,16 +15168,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15212,7 +15227,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -15227,13 +15242,13 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15244,16 +15259,16 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15272,16 +15287,16 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15331,7 +15346,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15346,13 +15361,13 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
@@ -15363,42 +15378,44 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="D111" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15448,7 +15465,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15463,13 +15480,13 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>79</v>
+        <v>625</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15480,14 +15497,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>649</v>
+        <v>79</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15506,20 +15523,18 @@
         <v>88</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>246</v>
+        <v>648</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>653</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15543,13 +15558,13 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>654</v>
+        <v>79</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
@@ -15567,7 +15582,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15585,28 +15600,28 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>657</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>79</v>
+        <v>655</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15622,19 +15637,23 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>79</v>
       </c>
@@ -15658,13 +15677,13 @@
         <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>79</v>
@@ -15682,7 +15701,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15697,10 +15716,10 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>481</v>
+        <v>652</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>662</v>
@@ -15728,7 +15747,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15737,13 +15756,13 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>225</v>
+        <v>665</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>665</v>
+        <v>48</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>666</v>
@@ -15803,7 +15822,7 @@
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>79</v>
@@ -15812,27 +15831,27 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>79</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15843,7 +15862,7 @@
         <v>77</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>79</v>
@@ -15852,20 +15871,18 @@
         <v>79</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>669</v>
+        <v>230</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N115" t="s" s="2">
         <v>672</v>
       </c>
+      <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -15914,13 +15931,13 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>79</v>
@@ -15929,23 +15946,140 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="AL115" t="s" s="2">
+      <c r="AN115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AL116" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM115" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO115" t="s" s="2">
+      <c r="AM116" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO116" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO115">
+  <autoFilter ref="A1:AO116">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15955,7 +16089,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI114">
+  <conditionalFormatting sqref="A2:AI115">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
